--- a/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
+++ b/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>(1/1)</t>
   </si>
@@ -95,16 +95,19 @@
     <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)', '(16/16)']</t>
   </si>
   <si>
+    <t>['(1/1)', '(4/4)', '(8/8)', '(16/16)', '(32/32)']</t>
+  </si>
+  <si>
+    <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)', '(32/32)']</t>
+  </si>
+  <si>
     <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)', '(16/16)', '(32/32)']</t>
   </si>
   <si>
-    <t>['(2/2)', '(4/4)', '(8/8)', '(16/16)', '(32/32)']</t>
-  </si>
-  <si>
-    <t>['(4/4)', '(8/8)', '(16/16)']</t>
-  </si>
-  <si>
     <t>['(8/8)']</t>
+  </si>
+  <si>
+    <t>['(4/4)']</t>
   </si>
 </sst>
 </file>
@@ -545,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.01562595367431641</v>
+        <v>0.003998756408691406</v>
       </c>
       <c r="K2" s="1">
-        <v>0.03355693817138672</v>
+        <v>0.02799892425537109</v>
       </c>
       <c r="L2" s="1">
-        <v>0.3139369487762451</v>
+        <v>0.308049201965332</v>
       </c>
       <c r="M2" s="1">
-        <v>2.562571287155151</v>
+        <v>2.569018125534058</v>
       </c>
       <c r="N2" s="1">
-        <v>20.96851563453674</v>
+        <v>20.99811410903931</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -580,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -589,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="K3" s="1">
-        <v>0.01565313339233398</v>
+        <v>0.007005453109741211</v>
       </c>
       <c r="L3" s="1">
-        <v>0.09362459182739258</v>
+        <v>0.08603692054748535</v>
       </c>
       <c r="M3" s="1">
-        <v>0.7792267799377441</v>
+        <v>0.788999080657959</v>
       </c>
       <c r="N3" s="1">
-        <v>6.388297319412231</v>
+        <v>6.436062335968018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -630,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="L4" s="1">
-        <v>0.02921366691589355</v>
+        <v>0.02200007438659668</v>
       </c>
       <c r="M4" s="1">
-        <v>0.2343740463256836</v>
+        <v>0.239999532699585</v>
       </c>
       <c r="N4" s="1">
-        <v>2.156335353851318</v>
+        <v>2.149999141693115</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -671,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>0.002000570297241211</v>
       </c>
       <c r="L5" s="1">
-        <v>0.01568174362182617</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="M5" s="1">
-        <v>0.1248347759246826</v>
+        <v>0.1319997310638428</v>
       </c>
       <c r="N5" s="1">
-        <v>1.077387809753418</v>
+        <v>1.076999425888062</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -697,25 +700,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>0.001000881195068359</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="L6" s="1">
-        <v>0.02999734878540039</v>
+        <v>0.0299990177154541</v>
       </c>
       <c r="M6" s="1">
-        <v>0.2470920085906982</v>
+        <v>0.2469987869262695</v>
       </c>
       <c r="N6" s="1">
-        <v>2.108720541000366</v>
+        <v>2.109010219573975</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -723,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -735,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0140540599822998</v>
+        <v>0.007997035980224609</v>
       </c>
       <c r="L7" s="1">
-        <v>0.06229209899902344</v>
+        <v>0.05699920654296875</v>
       </c>
       <c r="M7" s="1">
-        <v>0.4686980247497559</v>
+        <v>0.471519947052002</v>
       </c>
       <c r="N7" s="1">
-        <v>3.750388622283936</v>
+        <v>3.76193642616272</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -886,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -911,10 +914,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -925,7 +928,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>0.01568174362182617</v>
+        <v>0.01699995994567871</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -939,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>0.1248347759246826</v>
+        <v>0.1319997310638428</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
@@ -953,7 +956,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>1.077387809753418</v>
+        <v>1.076999425888062</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>

--- a/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
+++ b/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
@@ -15,24 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
-  <si>
-    <t>(1/1)</t>
-  </si>
-  <si>
-    <t>(2/2)</t>
-  </si>
-  <si>
-    <t>(4/4)</t>
-  </si>
-  <si>
-    <t>(8/8)</t>
-  </si>
-  <si>
-    <t>(16/16)</t>
-  </si>
-  <si>
-    <t>(32/32)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+  <si>
+    <t>Block (1/1)</t>
+  </si>
+  <si>
+    <t>Block (2/2)</t>
+  </si>
+  <si>
+    <t>Block (4/4)</t>
+  </si>
+  <si>
+    <t>Block (8/8)</t>
+  </si>
+  <si>
+    <t>Block (16/16)</t>
+  </si>
+  <si>
+    <t>Block (32/32)</t>
+  </si>
+  <si>
+    <t>Block (1/128)</t>
+  </si>
+  <si>
+    <t>Block (2/64)</t>
+  </si>
+  <si>
+    <t>Block (4/32)</t>
+  </si>
+  <si>
+    <t>Block (8/16)</t>
+  </si>
+  <si>
+    <t>Block (16/8)</t>
+  </si>
+  <si>
+    <t>Block (32/4)</t>
+  </si>
+  <si>
+    <t>Block (64/2)</t>
+  </si>
+  <si>
+    <t>Block (128/1)</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>Dimension Matrix</t>
@@ -83,31 +110,40 @@
     <t>8192</t>
   </si>
   <si>
-    <t>['(1/1)', '(2/2)']</t>
-  </si>
-  <si>
-    <t>['(1/1)', '(2/2)', '(4/4)']</t>
-  </si>
-  <si>
-    <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)']</t>
-  </si>
-  <si>
-    <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)', '(16/16)']</t>
-  </si>
-  <si>
-    <t>['(1/1)', '(4/4)', '(8/8)', '(16/16)', '(32/32)']</t>
-  </si>
-  <si>
-    <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)', '(32/32)']</t>
-  </si>
-  <si>
-    <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)', '(16/16)', '(32/32)']</t>
-  </si>
-  <si>
-    <t>['(8/8)']</t>
-  </si>
-  <si>
-    <t>['(4/4)']</t>
+    <t>['Block (1/1)', 'Block (2/2)']</t>
+  </si>
+  <si>
+    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)']</t>
+  </si>
+  <si>
+    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)']</t>
+  </si>
+  <si>
+    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (64/2)', 'Block (128/1)']</t>
+  </si>
+  <si>
+    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (64/2)', 'Block (128/1)']</t>
+  </si>
+  <si>
+    <t>['Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (64/2)', 'Block (128/1)']</t>
+  </si>
+  <si>
+    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (64/2)', 'Block (128/1)']</t>
+  </si>
+  <si>
+    <t>['Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (64/2)']</t>
+  </si>
+  <si>
+    <t>['Block (4/4)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (128/1)']</t>
+  </si>
+  <si>
+    <t>['Block (2/64)', 'Block (4/32)']</t>
+  </si>
+  <si>
+    <t>['Block (4/32)']</t>
+  </si>
+  <si>
+    <t>['Block (2/64)']</t>
   </si>
 </sst>
 </file>
@@ -469,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>0.01556110382080078</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -548,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.003998756408691406</v>
+        <v>0.01562643051147461</v>
       </c>
       <c r="K2" s="1">
-        <v>0.02799892425537109</v>
+        <v>0.02932381629943848</v>
       </c>
       <c r="L2" s="1">
-        <v>0.308049201965332</v>
+        <v>0.3218996524810791</v>
       </c>
       <c r="M2" s="1">
-        <v>2.569018125534058</v>
+        <v>2.578181743621826</v>
       </c>
       <c r="N2" s="1">
-        <v>20.99811410903931</v>
+        <v>21.07932233810425</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -583,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.001000404357910156</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -592,25 +628,28 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0009999275207519531</v>
+        <v>0.004617929458618164</v>
       </c>
       <c r="K3" s="1">
-        <v>0.007005453109741211</v>
+        <v>0.01562786102294922</v>
       </c>
       <c r="L3" s="1">
-        <v>0.08603692054748535</v>
+        <v>0.09386110305786133</v>
       </c>
       <c r="M3" s="1">
-        <v>0.788999080657959</v>
+        <v>0.7789838314056396</v>
       </c>
       <c r="N3" s="1">
-        <v>6.436062335968018</v>
+        <v>6.44127893447876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
@@ -633,25 +672,31 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.00099945068359375</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.002000093460083008</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.02200007438659668</v>
+        <v>0.01563048362731934</v>
       </c>
       <c r="M4" s="1">
-        <v>0.239999532699585</v>
+        <v>0.2349369525909424</v>
       </c>
       <c r="N4" s="1">
-        <v>2.149999141693115</v>
+        <v>2.156067132949829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
@@ -674,22 +719,31 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.002000570297241211</v>
+        <v>0.01003909111022949</v>
       </c>
       <c r="L5" s="1">
-        <v>0.01699995994567871</v>
+        <v>0.01784491539001465</v>
       </c>
       <c r="M5" s="1">
-        <v>0.1319997310638428</v>
+        <v>0.1405200958251953</v>
       </c>
       <c r="N5" s="1">
-        <v>1.076999425888062</v>
+        <v>1.0816330909729</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
@@ -700,33 +754,45 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.001000881195068359</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0.0009996891021728516</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.004000186920166016</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0.0299990177154541</v>
+        <v>0.02840733528137207</v>
       </c>
       <c r="M6" s="1">
-        <v>0.2469987869262695</v>
+        <v>0.2519958019256592</v>
       </c>
       <c r="N6" s="1">
-        <v>2.109010219573975</v>
+        <v>2.109191417694092</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="1">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -738,19 +804,371 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.007997035980224609</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.05699920654296875</v>
+        <v>0.06435203552246094</v>
       </c>
       <c r="M7" s="1">
-        <v>0.471519947052002</v>
+        <v>0.4693477153778076</v>
       </c>
       <c r="N7" s="1">
-        <v>3.76193642616272</v>
+        <v>3.76323413848877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.775161743164062E-06</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.01553034782409668</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.109849214553833</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.9529819488525391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.01367282867431641</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.07606601715087891</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.562913179397583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.06472611427307129</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.6843891143798828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.01458263397216797</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.1206746101379395</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.109252691268921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.02877664566040039</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.2818317413330078</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.4998779296875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.0002932548522949219</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.01215028762817383</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.06208634376525879</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.6873588562011719</v>
+      </c>
+      <c r="N13" s="1">
+        <v>6.921637535095215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.01562595367431641</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.0645442008972168</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.061770915985107</v>
+      </c>
+      <c r="N14" s="1">
+        <v>13.26360273361206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.01397943496704102</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.09390592575073242</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.466879367828369</v>
+      </c>
+      <c r="N15" s="1">
+        <v>24.01353192329407</v>
       </c>
     </row>
   </sheetData>
@@ -771,13 +1189,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -785,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -799,13 +1217,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -813,13 +1231,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -827,13 +1245,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -841,13 +1259,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -855,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -869,13 +1287,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -883,13 +1301,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -897,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -911,13 +1329,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
-        <v>0.002000093460083008</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -925,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>0.01699995994567871</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -939,13 +1357,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>0.1319997310638428</v>
+        <v>0.06472611427307129</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -953,13 +1371,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>1.076999425888062</v>
+        <v>0.562913179397583</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
+++ b/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>Block (1/1)</t>
   </si>
@@ -113,34 +113,25 @@
     <t>['Block (1/1)', 'Block (2/2)']</t>
   </si>
   <si>
-    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)']</t>
+    <t>['Block (1/1)']</t>
   </si>
   <si>
     <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)']</t>
   </si>
   <si>
-    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (64/2)', 'Block (128/1)']</t>
-  </si>
-  <si>
-    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (64/2)', 'Block (128/1)']</t>
-  </si>
-  <si>
-    <t>['Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (64/2)', 'Block (128/1)']</t>
-  </si>
-  <si>
-    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (64/2)', 'Block (128/1)']</t>
-  </si>
-  <si>
-    <t>['Block (4/4)', 'Block (8/8)', 'Block (16/16)', 'Block (32/32)', 'Block (2/64)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (64/2)']</t>
-  </si>
-  <si>
-    <t>['Block (4/4)', 'Block (16/16)', 'Block (32/32)', 'Block (1/128)', 'Block (4/32)', 'Block (8/16)', 'Block (16/8)', 'Block (32/4)', 'Block (128/1)']</t>
+    <t>['Block (4/4)', 'Block (8/8)', 'Block (1/128)', 'Block (2/64)', 'Block (16/8)']</t>
+  </si>
+  <si>
+    <t>['Block (8/8)', 'Block (2/64)']</t>
   </si>
   <si>
     <t>['Block (2/64)', 'Block (4/32)']</t>
   </si>
   <si>
     <t>['Block (4/32)']</t>
+  </si>
+  <si>
+    <t>['Block (1/128)']</t>
   </si>
   <si>
     <t>['Block (2/64)']</t>
@@ -560,43 +551,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>5.344000179320574E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>0.01556110382080078</v>
+        <v>1.097599975764751E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>5.734400078654289E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>0.0004204800128936768</v>
       </c>
       <c r="J2" s="1">
-        <v>0.01562643051147461</v>
+        <v>0.004969471931457519</v>
       </c>
       <c r="K2" s="1">
-        <v>0.02932381629943848</v>
+        <v>0.02791219139099121</v>
       </c>
       <c r="L2" s="1">
-        <v>0.3218996524810791</v>
+        <v>0.3094323120117187</v>
       </c>
       <c r="M2" s="1">
-        <v>2.578181743621826</v>
+        <v>2.56834765625</v>
       </c>
       <c r="N2" s="1">
-        <v>21.07932233810425</v>
+        <v>20.9605625</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -604,43 +595,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>4.383999854326248E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>6.976000033318996E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1.920000091195107E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>0.0001136640012264252</v>
       </c>
       <c r="J3" s="1">
-        <v>0.004617929458618164</v>
+        <v>0.0008468480110168457</v>
       </c>
       <c r="K3" s="1">
-        <v>0.01562786102294922</v>
+        <v>0.006802432060241699</v>
       </c>
       <c r="L3" s="1">
-        <v>0.09386110305786133</v>
+        <v>0.08700998687744141</v>
       </c>
       <c r="M3" s="1">
-        <v>0.7789838314056396</v>
+        <v>0.7855531616210938</v>
       </c>
       <c r="N3" s="1">
-        <v>6.44127893447876</v>
+        <v>6.37676123046875</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -651,40 +642,40 @@
         <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>4.127999767661095E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>5.439999978989363E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>9.920000098645687E-06</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>4.300799965858459E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>0.0002824960052967072</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>0.00242793607711792</v>
       </c>
       <c r="L4" s="1">
-        <v>0.01563048362731934</v>
+        <v>0.02228326416015625</v>
       </c>
       <c r="M4" s="1">
-        <v>0.2349369525909424</v>
+        <v>0.2462003173828125</v>
       </c>
       <c r="N4" s="1">
-        <v>2.156067132949829</v>
+        <v>2.1230625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -698,37 +689,37 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>5.855999886989594E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>9.952000342309476E-06</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>3.686400130391121E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>0.0002528640031814575</v>
       </c>
       <c r="K5" s="1">
-        <v>0.01003909111022949</v>
+        <v>0.001905375957489014</v>
       </c>
       <c r="L5" s="1">
-        <v>0.01784491539001465</v>
+        <v>0.01736883163452149</v>
       </c>
       <c r="M5" s="1">
-        <v>0.1405200958251953</v>
+        <v>0.1319463043212891</v>
       </c>
       <c r="N5" s="1">
-        <v>1.0816330909729</v>
+        <v>1.070620849609375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -745,34 +736,34 @@
         <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>4.416000097990036E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>6.335999816656113E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>9.216000325977802E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1.433600019663572E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>7.772800326347351E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>0.0004739840030670166</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>0.005241919994354248</v>
       </c>
       <c r="L6" s="1">
-        <v>0.02840733528137207</v>
+        <v>0.03092582321166992</v>
       </c>
       <c r="M6" s="1">
-        <v>0.2519958019256592</v>
+        <v>0.2454713287353516</v>
       </c>
       <c r="N6" s="1">
-        <v>2.109191417694092</v>
+        <v>2.09950341796875</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -792,31 +783,31 @@
         <v>14</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2.284800074994564E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>3.971200063824654E-05</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>7.459200173616409E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>0.0001443199962377548</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>0.001119232058525086</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>0.00724070405960083</v>
       </c>
       <c r="L7" s="1">
-        <v>0.06435203552246094</v>
+        <v>0.05936908721923828</v>
       </c>
       <c r="M7" s="1">
-        <v>0.4693477153778076</v>
+        <v>0.4688301696777344</v>
       </c>
       <c r="N7" s="1">
-        <v>3.76323413848877</v>
+        <v>3.7559140625</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -833,34 +824,34 @@
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>8.191999979317189E-06</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>2.047999948263168E-05</v>
       </c>
       <c r="J8" s="1">
-        <v>9.775161743164062E-06</v>
+        <v>0.0001290239989757538</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>0.00129638397693634</v>
       </c>
       <c r="L8" s="1">
-        <v>0.01553034782409668</v>
+        <v>0.01461839962005615</v>
       </c>
       <c r="M8" s="1">
-        <v>0.109849214553833</v>
+        <v>0.1212843551635742</v>
       </c>
       <c r="N8" s="1">
-        <v>0.9529819488525391</v>
+        <v>0.9543657836914062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -877,34 +868,34 @@
         <v>14</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>8.415999822318555E-06</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2.15039998292923E-05</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>0.0001198080033063889</v>
       </c>
       <c r="K9" s="1">
-        <v>0.01367282867431641</v>
+        <v>0.000894976019859314</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>0.007791615962982178</v>
       </c>
       <c r="M9" s="1">
-        <v>0.07606601715087891</v>
+        <v>0.06483446502685547</v>
       </c>
       <c r="N9" s="1">
-        <v>0.562913179397583</v>
+        <v>0.5557719116210937</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -921,34 +912,34 @@
         <v>14</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>4.160000011324882E-06</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>8.159999735653401E-06</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>2.559999935328961E-05</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>0.0001536000072956085</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>0.001116832017898559</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>0.008648415565490723</v>
       </c>
       <c r="M10" s="1">
-        <v>0.06472611427307129</v>
+        <v>0.07584288024902344</v>
       </c>
       <c r="N10" s="1">
-        <v>0.6843891143798828</v>
+        <v>0.6846515502929688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -965,34 +956,34 @@
         <v>14</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>5.824000108987093E-06</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1.023999974131584E-05</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>3.98080013692379E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>0.0002560000121593475</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>0.002439167976379394</v>
       </c>
       <c r="L11" s="1">
-        <v>0.01458263397216797</v>
+        <v>0.01704128074645996</v>
       </c>
       <c r="M11" s="1">
-        <v>0.1206746101379395</v>
+        <v>0.1332930603027344</v>
       </c>
       <c r="N11" s="1">
-        <v>1.109252691268921</v>
+        <v>1.0974638671875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1009,34 +1000,34 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1.417599990963936E-05</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>6.860800087451935E-05</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>0.0004593600034713745</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>0.00361247992515564</v>
       </c>
       <c r="L12" s="1">
-        <v>0.02877664566040039</v>
+        <v>0.03292569732666015</v>
       </c>
       <c r="M12" s="1">
-        <v>0.2818317413330078</v>
+        <v>0.2685861511230469</v>
       </c>
       <c r="N12" s="1">
-        <v>2.4998779296875</v>
+        <v>2.487429931640625</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1053,34 +1044,34 @@
         <v>14</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>9.216000325977802E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>2.227200008928776E-05</v>
       </c>
       <c r="I13" s="1">
-        <v>0.0002932548522949219</v>
+        <v>0.0001280000060796738</v>
       </c>
       <c r="J13" s="1">
-        <v>0.01215028762817383</v>
+        <v>0.0009144319891929626</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>0.00704204797744751</v>
       </c>
       <c r="L13" s="1">
-        <v>0.06208634376525879</v>
+        <v>0.06165311813354492</v>
       </c>
       <c r="M13" s="1">
-        <v>0.6873588562011719</v>
+        <v>0.6896220092773437</v>
       </c>
       <c r="N13" s="1">
-        <v>6.921637535095215</v>
+        <v>6.89976708984375</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1097,34 +1088,34 @@
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>9.216000325977802E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>2.265599928796291E-05</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>0.0001283520013093948</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>0.0009134079813957214</v>
       </c>
       <c r="K14" s="1">
-        <v>0.01562595367431641</v>
+        <v>0.007068672180175781</v>
       </c>
       <c r="L14" s="1">
-        <v>0.0645442008972168</v>
+        <v>0.06420582580566406</v>
       </c>
       <c r="M14" s="1">
-        <v>1.061770915985107</v>
+        <v>1.063920654296875</v>
       </c>
       <c r="N14" s="1">
-        <v>13.26360273361206</v>
+        <v>13.210326171875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1141,34 +1132,34 @@
         <v>14</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>7.903999648988247E-06</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2.15039998292923E-05</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>0.0001280000060796738</v>
       </c>
       <c r="J15" s="1">
-        <v>0.01397943496704102</v>
+        <v>0.0009072639942169189</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>0.006917823791503906</v>
       </c>
       <c r="L15" s="1">
-        <v>0.09390592575073242</v>
+        <v>0.0869169921875</v>
       </c>
       <c r="M15" s="1">
-        <v>2.466879367828369</v>
+        <v>2.4615927734375</v>
       </c>
       <c r="N15" s="1">
-        <v>24.01353192329407</v>
+        <v>23.961908203125</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -1220,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
@@ -1234,7 +1225,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -1248,7 +1239,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
@@ -1262,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>35</v>
@@ -1276,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -1290,10 +1281,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>8.159999735653401E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1304,10 +1295,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>2.047999948263168E-05</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1318,10 +1309,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>0.0001198080033063889</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1332,7 +1323,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>0.000894976019859314</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
@@ -1346,10 +1337,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>0.007791615962982178</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1360,10 +1351,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>0.06472611427307129</v>
+        <v>0.06483446502685547</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1374,10 +1365,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>0.562913179397583</v>
+        <v>0.5557719116210937</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
+++ b/CUDA/RESULTADOS/kernel_cuda/resultados.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados Combinados" sheetId="1" r:id="rId1"/>
-    <sheet name="Mejores Resultados" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultados" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>Block (1/1)</t>
   </si>
@@ -60,81 +59,6 @@
   </si>
   <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>Dimension Matrix</t>
-  </si>
-  <si>
-    <t>Best Value</t>
-  </si>
-  <si>
-    <t>Local Size</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>4096</t>
-  </si>
-  <si>
-    <t>8192</t>
-  </si>
-  <si>
-    <t>['Block (1/1)', 'Block (2/2)']</t>
-  </si>
-  <si>
-    <t>['Block (1/1)']</t>
-  </si>
-  <si>
-    <t>['Block (1/1)', 'Block (2/2)', 'Block (4/4)', 'Block (8/8)']</t>
-  </si>
-  <si>
-    <t>['Block (4/4)', 'Block (8/8)', 'Block (1/128)', 'Block (2/64)', 'Block (16/8)']</t>
-  </si>
-  <si>
-    <t>['Block (8/8)', 'Block (2/64)']</t>
-  </si>
-  <si>
-    <t>['Block (2/64)', 'Block (4/32)']</t>
-  </si>
-  <si>
-    <t>['Block (4/32)']</t>
-  </si>
-  <si>
-    <t>['Block (1/128)']</t>
-  </si>
-  <si>
-    <t>['Block (2/64)']</t>
   </si>
 </sst>
 </file>
@@ -557,37 +481,37 @@
         <v>4.095999989658594E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="E2" s="1">
         <v>5.119999870657921E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>5.344000179320574E-06</v>
+        <v>6.240000016987324E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>1.097599975764751E-05</v>
+        <v>1.126400008797646E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>5.734400078654289E-05</v>
+        <v>6.143999844789505E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0004204800128936768</v>
+        <v>0.0008123520016670227</v>
       </c>
       <c r="J2" s="1">
-        <v>0.004969471931457519</v>
+        <v>0.003586047887802124</v>
       </c>
       <c r="K2" s="1">
-        <v>0.02791219139099121</v>
+        <v>0.02937014389038086</v>
       </c>
       <c r="L2" s="1">
-        <v>0.3094323120117187</v>
+        <v>0.3165030517578125</v>
       </c>
       <c r="M2" s="1">
-        <v>2.56834765625</v>
+        <v>2.68346875</v>
       </c>
       <c r="N2" s="1">
-        <v>20.9605625</v>
+        <v>26.67212890625</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -595,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="C3" s="1">
         <v>5.119999870657921E-06</v>
@@ -604,34 +528,34 @@
         <v>4.095999989658594E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>4.383999854326248E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>6.144000217318535E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>6.976000033318996E-06</v>
+        <v>7.168000098317862E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>1.920000091195107E-05</v>
+        <v>1.945599913597107E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.0001136640012264252</v>
+        <v>0.0001124479994177818</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0008468480110168457</v>
+        <v>0.0008509439826011657</v>
       </c>
       <c r="K3" s="1">
-        <v>0.006802432060241699</v>
+        <v>0.007327360153198242</v>
       </c>
       <c r="L3" s="1">
-        <v>0.08700998687744141</v>
+        <v>0.08907174682617187</v>
       </c>
       <c r="M3" s="1">
-        <v>0.7855531616210938</v>
+        <v>0.8022662963867188</v>
       </c>
       <c r="N3" s="1">
-        <v>6.37676123046875</v>
+        <v>8.104358886718749</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -642,40 +566,40 @@
         <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>4.127999767661095E-06</v>
+        <v>4.095999989658594E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>5.119999870657921E-06</v>
+        <v>5.152000114321708E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>5.439999978989363E-06</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>9.920000098645687E-06</v>
+        <v>9.216000325977802E-06</v>
       </c>
       <c r="I4" s="1">
         <v>4.300799965858459E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0002824960052967072</v>
+        <v>0.0002877439856529236</v>
       </c>
       <c r="K4" s="1">
-        <v>0.00242793607711792</v>
+        <v>0.002655231952667236</v>
       </c>
       <c r="L4" s="1">
-        <v>0.02228326416015625</v>
+        <v>0.03922601699829101</v>
       </c>
       <c r="M4" s="1">
-        <v>0.2462003173828125</v>
+        <v>0.5093918151855469</v>
       </c>
       <c r="N4" s="1">
-        <v>2.1230625</v>
+        <v>2.2065908203125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -692,34 +616,34 @@
         <v>4.095999989658594E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>5.855999886989594E-06</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>9.952000342309476E-06</v>
+        <v>1.020800042897463E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>3.686400130391121E-05</v>
+        <v>3.772800043225288E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0002528640031814575</v>
+        <v>0.0004833280146121979</v>
       </c>
       <c r="K5" s="1">
-        <v>0.001905375957489014</v>
+        <v>0.001922047972679138</v>
       </c>
       <c r="L5" s="1">
-        <v>0.01736883163452149</v>
+        <v>0.0328430061340332</v>
       </c>
       <c r="M5" s="1">
-        <v>0.1319463043212891</v>
+        <v>0.135796890258789</v>
       </c>
       <c r="N5" s="1">
-        <v>1.070620849609375</v>
+        <v>2.03919873046875</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -736,10 +660,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>4.416000097990036E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>6.335999816656113E-06</v>
+        <v>7.168000098317862E-06</v>
       </c>
       <c r="G6" s="1">
         <v>9.216000325977802E-06</v>
@@ -748,22 +672,22 @@
         <v>1.433600019663572E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.772800326347351E-05</v>
+        <v>7.756800204515457E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.0004739840030670166</v>
+        <v>0.000475167989730835</v>
       </c>
       <c r="K6" s="1">
-        <v>0.005241919994354248</v>
+        <v>0.00500710391998291</v>
       </c>
       <c r="L6" s="1">
-        <v>0.03092582321166992</v>
+        <v>0.06314086532592773</v>
       </c>
       <c r="M6" s="1">
-        <v>0.2454713287353516</v>
+        <v>0.4823634033203125</v>
       </c>
       <c r="N6" s="1">
-        <v>2.09950341796875</v>
+        <v>4.151234375</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -783,31 +707,31 @@
         <v>14</v>
       </c>
       <c r="F7" s="1">
-        <v>2.284800074994564E-05</v>
+        <v>2.355200052261353E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>3.971200063824654E-05</v>
+        <v>4.064000025391579E-05</v>
       </c>
       <c r="H7" s="1">
-        <v>7.459200173616409E-05</v>
+        <v>7.475200295448303E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0001443199962377548</v>
+        <v>0.0001454080045223236</v>
       </c>
       <c r="J7" s="1">
-        <v>0.001119232058525086</v>
+        <v>0.001120255947113037</v>
       </c>
       <c r="K7" s="1">
-        <v>0.00724070405960083</v>
+        <v>0.007260096073150635</v>
       </c>
       <c r="L7" s="1">
-        <v>0.05936908721923828</v>
+        <v>0.05832790374755859</v>
       </c>
       <c r="M7" s="1">
-        <v>0.4688301696777344</v>
+        <v>0.4700618286132813</v>
       </c>
       <c r="N7" s="1">
-        <v>3.7559140625</v>
+        <v>3.745610595703125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -824,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F8" s="1">
         <v>5.119999870657921E-06</v>
@@ -833,25 +757,25 @@
         <v>6.144000217318535E-06</v>
       </c>
       <c r="H8" s="1">
-        <v>8.191999979317189E-06</v>
+        <v>9.184000082314015E-06</v>
       </c>
       <c r="I8" s="1">
-        <v>2.047999948263168E-05</v>
+        <v>2.019199915230274E-05</v>
       </c>
       <c r="J8" s="1">
-        <v>0.0001290239989757538</v>
+        <v>0.0001322879940271378</v>
       </c>
       <c r="K8" s="1">
-        <v>0.00129638397693634</v>
+        <v>0.001270112037658691</v>
       </c>
       <c r="L8" s="1">
-        <v>0.01461839962005615</v>
+        <v>0.01295257568359375</v>
       </c>
       <c r="M8" s="1">
-        <v>0.1212843551635742</v>
+        <v>0.1198786544799805</v>
       </c>
       <c r="N8" s="1">
-        <v>0.9543657836914062</v>
+        <v>0.9483131103515625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -868,34 +792,34 @@
         <v>14</v>
       </c>
       <c r="E9" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F9" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="G9" s="1">
         <v>5.119999870657921E-06</v>
       </c>
       <c r="H9" s="1">
-        <v>8.415999822318555E-06</v>
+        <v>8.287999778985978E-06</v>
       </c>
       <c r="I9" s="1">
-        <v>2.15039998292923E-05</v>
+        <v>2.127999998629093E-05</v>
       </c>
       <c r="J9" s="1">
         <v>0.0001198080033063889</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000894976019859314</v>
+        <v>0.0009040639996528625</v>
       </c>
       <c r="L9" s="1">
-        <v>0.007791615962982178</v>
+        <v>0.007817215919494629</v>
       </c>
       <c r="M9" s="1">
-        <v>0.06483446502685547</v>
+        <v>0.06943231964111328</v>
       </c>
       <c r="N9" s="1">
-        <v>0.5557719116210937</v>
+        <v>0.5593825073242188</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -912,34 +836,34 @@
         <v>14</v>
       </c>
       <c r="E10" s="1">
-        <v>4.160000011324882E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F10" s="1">
         <v>5.119999870657921E-06</v>
       </c>
       <c r="G10" s="1">
-        <v>5.119999870657921E-06</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="H10" s="1">
-        <v>8.159999735653401E-06</v>
+        <v>7.840000092983246E-06</v>
       </c>
       <c r="I10" s="1">
-        <v>2.559999935328961E-05</v>
+        <v>2.543999999761581E-05</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0001536000072956085</v>
+        <v>0.0001505279988050461</v>
       </c>
       <c r="K10" s="1">
-        <v>0.001116832017898559</v>
+        <v>0.001094655990600586</v>
       </c>
       <c r="L10" s="1">
-        <v>0.008648415565490723</v>
+        <v>0.008572863578796388</v>
       </c>
       <c r="M10" s="1">
-        <v>0.07584288024902344</v>
+        <v>0.077697021484375</v>
       </c>
       <c r="N10" s="1">
-        <v>0.6846515502929688</v>
+        <v>0.6900963745117188</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -962,28 +886,28 @@
         <v>5.119999870657921E-06</v>
       </c>
       <c r="G11" s="1">
-        <v>5.824000108987093E-06</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="H11" s="1">
-        <v>1.023999974131584E-05</v>
+        <v>9.279999881982804E-06</v>
       </c>
       <c r="I11" s="1">
-        <v>3.98080013692379E-05</v>
+        <v>3.920000046491623E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0.0002560000121593475</v>
+        <v>0.000257887989282608</v>
       </c>
       <c r="K11" s="1">
-        <v>0.002439167976379394</v>
+        <v>0.001917951941490173</v>
       </c>
       <c r="L11" s="1">
-        <v>0.01704128074645996</v>
+        <v>0.01518591976165772</v>
       </c>
       <c r="M11" s="1">
-        <v>0.1332930603027344</v>
+        <v>0.1333900146484375</v>
       </c>
       <c r="N11" s="1">
-        <v>1.0974638671875</v>
+        <v>1.100630004882813</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1000,34 +924,34 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>4.095999989658594E-06</v>
+        <v>5.119999870657921E-06</v>
       </c>
       <c r="F12" s="1">
         <v>5.119999870657921E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>6.144000217318535E-06</v>
+        <v>6.976000033318996E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>1.417599990963936E-05</v>
+        <v>1.331199984997511E-05</v>
       </c>
       <c r="I12" s="1">
-        <v>6.860800087451935E-05</v>
+        <v>6.95360004901886E-05</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0004593600034713745</v>
+        <v>0.0004792320132255554</v>
       </c>
       <c r="K12" s="1">
-        <v>0.00361247992515564</v>
+        <v>0.003625855922698974</v>
       </c>
       <c r="L12" s="1">
-        <v>0.03292569732666015</v>
+        <v>0.03118284797668457</v>
       </c>
       <c r="M12" s="1">
-        <v>0.2685861511230469</v>
+        <v>0.2704115600585937</v>
       </c>
       <c r="N12" s="1">
-        <v>2.487429931640625</v>
+        <v>2.481673095703125</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1050,28 +974,28 @@
         <v>6.144000217318535E-06</v>
       </c>
       <c r="G13" s="1">
-        <v>9.216000325977802E-06</v>
+        <v>9.887999854981899E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>2.227200008928776E-05</v>
+        <v>2.252800017595291E-05</v>
       </c>
       <c r="I13" s="1">
         <v>0.0001280000060796738</v>
       </c>
       <c r="J13" s="1">
-        <v>0.0009144319891929626</v>
+        <v>0.0009175040125846863</v>
       </c>
       <c r="K13" s="1">
-        <v>0.00704204797744751</v>
+        <v>0.007305215835571289</v>
       </c>
       <c r="L13" s="1">
-        <v>0.06165311813354492</v>
+        <v>0.06098735809326172</v>
       </c>
       <c r="M13" s="1">
-        <v>0.6896220092773437</v>
+        <v>0.6802942504882813</v>
       </c>
       <c r="N13" s="1">
-        <v>6.89976708984375</v>
+        <v>6.78150048828125</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1088,34 +1012,34 @@
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>5.119999870657921E-06</v>
+        <v>4.224000032991171E-06</v>
       </c>
       <c r="F14" s="1">
-        <v>5.119999870657921E-06</v>
+        <v>6.144000217318535E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>9.216000325977802E-06</v>
+        <v>9.02399979531765E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>2.265599928796291E-05</v>
+        <v>2.252800017595291E-05</v>
       </c>
       <c r="I14" s="1">
-        <v>0.0001283520013093948</v>
+        <v>0.0001281919926404953</v>
       </c>
       <c r="J14" s="1">
-        <v>0.0009134079813957214</v>
+        <v>0.0009154559969902039</v>
       </c>
       <c r="K14" s="1">
-        <v>0.007068672180175781</v>
+        <v>0.007046144008636474</v>
       </c>
       <c r="L14" s="1">
-        <v>0.06420582580566406</v>
+        <v>0.06375555038452148</v>
       </c>
       <c r="M14" s="1">
-        <v>1.063920654296875</v>
+        <v>1.065941040039063</v>
       </c>
       <c r="N14" s="1">
-        <v>13.210326171875</v>
+        <v>13.280060546875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1141,234 +1065,25 @@
         <v>7.903999648988247E-06</v>
       </c>
       <c r="H15" s="1">
-        <v>2.15039998292923E-05</v>
+        <v>2.217599935829639E-05</v>
       </c>
       <c r="I15" s="1">
         <v>0.0001280000060796738</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0009072639942169189</v>
+        <v>0.0009103999733924866</v>
       </c>
       <c r="K15" s="1">
-        <v>0.006917823791503906</v>
+        <v>0.008739839553833008</v>
       </c>
       <c r="L15" s="1">
-        <v>0.0869169921875</v>
+        <v>0.08607846069335938</v>
       </c>
       <c r="M15" s="1">
-        <v>2.4615927734375</v>
+        <v>2.430419921875</v>
       </c>
       <c r="N15" s="1">
-        <v>23.961908203125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="4" width="15.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4.095999989658594E-06</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.095999989658594E-06</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.095999989658594E-06</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.095999989658594E-06</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.095999989658594E-06</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.119999870657921E-06</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8.159999735653401E-06</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.047999948263168E-05</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.0001198080033063889</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.000894976019859314</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.007791615962982178</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.06483446502685547</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.5557719116210937</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>23.464603515625</v>
       </c>
     </row>
   </sheetData>
